--- a/artfynd/A 1845-2022 artfynd.xlsx
+++ b/artfynd/A 1845-2022 artfynd.xlsx
@@ -1109,7 +1109,7 @@
         <v>127354120</v>
       </c>
       <c r="B6" t="n">
-        <v>57669</v>
+        <v>57881</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>128726891</v>
       </c>
       <c r="B8" t="n">
-        <v>57724</v>
+        <v>57881</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>

--- a/artfynd/A 1845-2022 artfynd.xlsx
+++ b/artfynd/A 1845-2022 artfynd.xlsx
@@ -992,7 +992,7 @@
         <v>127353847</v>
       </c>
       <c r="B5" t="n">
-        <v>57685</v>
+        <v>57897</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
